--- a/data_mpi_2048.xlsx
+++ b/data_mpi_2048.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SHU\workspace\Cpp_test\parallel_computing\test\matrix_omp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3359FE-EA40-44AB-85EE-A8685B29F557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26685" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="data_mpi_2048" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -40,6 +23,9 @@
   </si>
   <si>
     <t>TIME</t>
+  </si>
+  <si>
+    <t>线程数/进程数</t>
   </si>
   <si>
     <t>1thrd</t>
@@ -63,6 +49,35 @@
     <t>时间</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线程数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进程数</t>
+    </r>
+  </si>
+  <si>
     <t>加速比</t>
   </si>
   <si>
@@ -83,79 +98,30 @@
   <si>
     <t>32proc</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>线程数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>进程数</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程数/进程数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -163,18 +129,360 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -197,43 +505,323 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -247,15 +835,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -299,9 +884,11 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>线程数</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -310,26 +897,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr defTabSz="914400">
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -363,6 +930,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$P$1:$U$1</c:f>
@@ -399,29 +969,24 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8020821337264206</c:v>
+                  <c:v>2.80208213372642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0001972840561599</c:v>
+                  <c:v>4.00019728405616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5544665653381653</c:v>
+                  <c:v>4.55446656533817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2027553614857398</c:v>
+                  <c:v>4.20275536148574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7357596005625529</c:v>
+                  <c:v>3.73575960056255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9766-44A0-84E5-3D9B38925856}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -449,6 +1014,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$P$1:$U$1</c:f>
@@ -482,32 +1050,27 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.6958418712276446</c:v>
+                  <c:v>1.69584187122764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7147707772261205</c:v>
+                  <c:v>3.71477077722612</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1477336153462012</c:v>
+                  <c:v>7.1477336153462</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8194533469821197</c:v>
+                  <c:v>5.81945334698212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9959755576727227</c:v>
+                  <c:v>4.99597555767272</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2718494329154817</c:v>
+                  <c:v>4.27184943291548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9766-44A0-84E5-3D9B38925856}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -535,6 +1098,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$P$1:$U$1</c:f>
@@ -568,32 +1134,27 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.4575170668631721</c:v>
+                  <c:v>8.45751706686317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6691626132475204</c:v>
+                  <c:v>8.66916261324752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6651473892328301</c:v>
+                  <c:v>7.66514738923283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6840500976856525</c:v>
+                  <c:v>6.68405009768565</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5876239870129734</c:v>
+                  <c:v>6.58762398701297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2786559347331092</c:v>
+                  <c:v>6.27865593473311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9766-44A0-84E5-3D9B38925856}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -624,6 +1185,8 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -632,10 +1195,27 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-9766-44A0-84E5-3D9B38925856}"/>
-                </c:ext>
               </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -670,15 +1250,16 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -690,7 +1271,22 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -727,32 +1323,27 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.959033247048888</c:v>
+                  <c:v>13.9590332470489</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9605819244576512</c:v>
+                  <c:v>8.96058192445765</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0855320642554691</c:v>
+                  <c:v>9.08553206425547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5425350245480782</c:v>
+                  <c:v>8.54253502454808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5470962157787351</c:v>
+                  <c:v>8.54709621577874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.428221079905228</c:v>
+                  <c:v>8.42822107990523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9766-44A0-84E5-3D9B38925856}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -780,6 +1371,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$P$1:$U$1</c:f>
@@ -813,32 +1407,27 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.273264705763667</c:v>
+                  <c:v>12.2732647057637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.769930807855468</c:v>
+                  <c:v>10.7699308078555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.228191801506258</c:v>
+                  <c:v>10.2281918015063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.232699757930348</c:v>
+                  <c:v>10.2326997579303</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7859223902303256</c:v>
+                  <c:v>9.78592239023033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.074779512235519</c:v>
+                  <c:v>10.0747795122355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9766-44A0-84E5-3D9B38925856}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -866,6 +1455,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$P$1:$U$1</c:f>
@@ -899,32 +1491,27 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.901212249274138</c:v>
+                  <c:v>11.9012122492741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8470867814082386</c:v>
+                  <c:v>9.84708678140824</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.096686114546072</c:v>
+                  <c:v>10.0966861145461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6751464099733742</c:v>
+                  <c:v>9.67514640997337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2278262294236413</c:v>
+                  <c:v>9.22782622942364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.051937793627003</c:v>
+                  <c:v>10.051937793627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9766-44A0-84E5-3D9B38925856}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -934,6 +1521,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="172537500"/>
         <c:axId val="83243181"/>
@@ -979,7 +1567,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83243181"/>
@@ -1039,7 +1626,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="172537500"/>
@@ -1056,6 +1642,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1081,7 +1668,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1111,7 +1697,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1123,7 +1708,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1143,7 +1728,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1167,9 +1752,11 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>进程数</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1178,26 +1765,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1233,7 +1800,21 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -1242,10 +1823,15 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-7A91-4C0A-9DCC-65181190776A}"/>
-                </c:ext>
               </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -1268,7 +1854,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -1280,15 +1866,16 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -1300,7 +1887,22 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1340,29 +1942,24 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6958418712276446</c:v>
+                  <c:v>1.69584187122764</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4575170668631721</c:v>
+                  <c:v>8.45751706686317</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.959033247048888</c:v>
+                  <c:v>13.9590332470489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.273264705763667</c:v>
+                  <c:v>12.2732647057637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.901212249274138</c:v>
+                  <c:v>11.9012122492741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A91-4C0A-9DCC-65181190776A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1390,6 +1987,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$O$2:$O$7</c:f>
@@ -1423,32 +2023,27 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.8020821337264206</c:v>
+                  <c:v>2.80208213372642</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7147707772261205</c:v>
+                  <c:v>3.71477077722612</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6691626132475204</c:v>
+                  <c:v>8.66916261324752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9605819244576512</c:v>
+                  <c:v>8.96058192445765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.769930807855468</c:v>
+                  <c:v>10.7699308078555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8470867814082386</c:v>
+                  <c:v>9.84708678140824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7A91-4C0A-9DCC-65181190776A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1476,6 +2071,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$O$2:$O$7</c:f>
@@ -1509,32 +2107,27 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.0001972840561599</c:v>
+                  <c:v>4.00019728405616</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1477336153462012</c:v>
+                  <c:v>7.1477336153462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6651473892328301</c:v>
+                  <c:v>7.66514738923283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0855320642554691</c:v>
+                  <c:v>9.08553206425547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.228191801506258</c:v>
+                  <c:v>10.2281918015063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.096686114546072</c:v>
+                  <c:v>10.0966861145461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7A91-4C0A-9DCC-65181190776A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1562,6 +2155,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$O$2:$O$7</c:f>
@@ -1595,32 +2191,27 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.5544665653381653</c:v>
+                  <c:v>4.55446656533817</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8194533469821197</c:v>
+                  <c:v>5.81945334698212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6840500976856525</c:v>
+                  <c:v>6.68405009768565</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5425350245480782</c:v>
+                  <c:v>8.54253502454808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.232699757930348</c:v>
+                  <c:v>10.2326997579303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6751464099733742</c:v>
+                  <c:v>9.67514640997337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7A91-4C0A-9DCC-65181190776A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1648,6 +2239,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$O$2:$O$7</c:f>
@@ -1681,32 +2275,27 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.2027553614857398</c:v>
+                  <c:v>4.20275536148574</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9959755576727227</c:v>
+                  <c:v>4.99597555767272</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5876239870129734</c:v>
+                  <c:v>6.58762398701297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5470962157787351</c:v>
+                  <c:v>8.54709621577874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7859223902303256</c:v>
+                  <c:v>9.78592239023033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2278262294236413</c:v>
+                  <c:v>9.22782622942364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7A91-4C0A-9DCC-65181190776A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1734,6 +2323,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$O$2:$O$7</c:f>
@@ -1767,32 +2359,27 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.7357596005625529</c:v>
+                  <c:v>3.73575960056255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2718494329154817</c:v>
+                  <c:v>4.27184943291548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2786559347331092</c:v>
+                  <c:v>6.27865593473311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.428221079905228</c:v>
+                  <c:v>8.42822107990523</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.074779512235519</c:v>
+                  <c:v>10.0747795122355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.051937793627003</c:v>
+                  <c:v>10.051937793627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7A91-4C0A-9DCC-65181190776A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1802,6 +2389,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="210983551"/>
         <c:axId val="206418015"/>
@@ -1835,7 +2423,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1847,7 +2435,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="206418015"/>
@@ -1895,7 +2482,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1907,7 +2494,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="210983551"/>
@@ -1924,6 +2510,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1937,7 +2524,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1949,19 +2536,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1984,9 +2563,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3110,7 +3688,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -3124,20 +3702,14 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>12974</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3312160" y="2332990"/>
+        <a:ext cx="5427980" cy="3061335"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3160,20 +3732,14 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>84412</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD681399-061D-4672-95C9-F9A08C26F377}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11449050" y="2242820"/>
+        <a:ext cx="5427345" cy="3060700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3438,83 +4004,83 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="7.25333333333333" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="7.25" style="1"/>
+    <col min="1" max="16384" width="7.25333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="28.5" spans="1:22">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3522,57 +4088,57 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>60.829000000000001</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3">
-        <v>60.829000000000001</v>
-      </c>
-      <c r="H2" s="3">
-        <v>21.708500000000001</v>
-      </c>
-      <c r="I2" s="3">
+        <v>60.829</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4">
+        <v>60.829</v>
+      </c>
+      <c r="H2" s="4">
+        <v>21.7085</v>
+      </c>
+      <c r="I2" s="4">
         <v>15.2065</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>13.3559</v>
       </c>
-      <c r="K2" s="3">
-        <v>14.473599999999999</v>
-      </c>
-      <c r="L2" s="3">
-        <v>16.282900000000001</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="3">
+      <c r="K2" s="4">
+        <v>14.4736</v>
+      </c>
+      <c r="L2" s="4">
+        <v>16.2829</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4">
         <v>1</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="4">
         <f t="shared" ref="Q2:U2" si="0">$G$2/H2</f>
-        <v>2.8020821337264206</v>
-      </c>
-      <c r="R2" s="3">
+        <v>2.80208213372642</v>
+      </c>
+      <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>4.0001972840561599</v>
-      </c>
-      <c r="S2" s="3">
+        <v>4.00019728405616</v>
+      </c>
+      <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>4.5544665653381653</v>
-      </c>
-      <c r="T2" s="3">
+        <v>4.55446656533817</v>
+      </c>
+      <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>4.2027553614857398</v>
-      </c>
-      <c r="U2" s="3">
+        <v>4.20275536148574</v>
+      </c>
+      <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>3.7357596005625529</v>
+        <v>3.73575960056255</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3580,58 +4146,58 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>21.708500000000001</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3">
-        <v>35.869500000000002</v>
-      </c>
-      <c r="H3" s="3">
+        <v>21.7085</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>35.8695</v>
+      </c>
+      <c r="H3" s="4">
         <v>16.3749</v>
       </c>
-      <c r="I3" s="3">
-        <v>8.5102499999999992</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3" s="4">
+        <v>8.51025</v>
+      </c>
+      <c r="J3" s="4">
         <v>10.4527</v>
       </c>
-      <c r="K3" s="3">
-        <v>12.175599999999999</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K3" s="4">
+        <v>12.1756</v>
+      </c>
+      <c r="L3" s="4">
         <v>14.2395</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="O3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="4">
         <f t="shared" ref="P3:U3" si="1">$G$2/G3</f>
-        <v>1.6958418712276446</v>
-      </c>
-      <c r="Q3" s="3">
+        <v>1.69584187122764</v>
+      </c>
+      <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>3.7147707772261205</v>
-      </c>
-      <c r="R3" s="3">
+        <v>3.71477077722612</v>
+      </c>
+      <c r="R3" s="4">
         <f t="shared" si="1"/>
-        <v>7.1477336153462012</v>
-      </c>
-      <c r="S3" s="3">
+        <v>7.1477336153462</v>
+      </c>
+      <c r="S3" s="4">
         <f t="shared" si="1"/>
-        <v>5.8194533469821197</v>
-      </c>
-      <c r="T3" s="3">
+        <v>5.81945334698212</v>
+      </c>
+      <c r="T3" s="4">
         <f t="shared" si="1"/>
-        <v>4.9959755576727227</v>
-      </c>
-      <c r="U3" s="3">
+        <v>4.99597555767272</v>
+      </c>
+      <c r="U3" s="4">
         <f t="shared" si="1"/>
-        <v>4.2718494329154817</v>
+        <v>4.27184943291548</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3641,56 +4207,56 @@
       <c r="C4" s="1">
         <v>15.2065</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3">
-        <v>7.1923000000000004</v>
-      </c>
-      <c r="H4" s="3">
-        <v>7.0167099999999998</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7.9357899999999999</v>
-      </c>
-      <c r="J4" s="3">
-        <v>9.1006199999999993</v>
-      </c>
-      <c r="K4" s="3">
-        <v>9.2338299999999993</v>
-      </c>
-      <c r="L4" s="3">
-        <v>9.6882199999999994</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7.1923</v>
+      </c>
+      <c r="H4" s="4">
+        <v>7.01671</v>
+      </c>
+      <c r="I4" s="4">
+        <v>7.93579</v>
+      </c>
+      <c r="J4" s="4">
+        <v>9.10062</v>
+      </c>
+      <c r="K4" s="4">
+        <v>9.23383</v>
+      </c>
+      <c r="L4" s="4">
+        <v>9.68822</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="4">
         <f t="shared" ref="P4:U4" si="2">$G$2/G4</f>
-        <v>8.4575170668631721</v>
-      </c>
-      <c r="Q4" s="3">
+        <v>8.45751706686317</v>
+      </c>
+      <c r="Q4" s="4">
         <f t="shared" si="2"/>
-        <v>8.6691626132475204</v>
-      </c>
-      <c r="R4" s="3">
+        <v>8.66916261324752</v>
+      </c>
+      <c r="R4" s="4">
         <f t="shared" si="2"/>
-        <v>7.6651473892328301</v>
-      </c>
-      <c r="S4" s="3">
-        <f>$G$2/J4</f>
-        <v>6.6840500976856525</v>
-      </c>
-      <c r="T4" s="3">
+        <v>7.66514738923283</v>
+      </c>
+      <c r="S4" s="4">
         <f t="shared" si="2"/>
-        <v>6.5876239870129734</v>
-      </c>
-      <c r="U4" s="3">
+        <v>6.68405009768565</v>
+      </c>
+      <c r="T4" s="4">
         <f t="shared" si="2"/>
-        <v>6.2786559347331092</v>
+        <v>6.58762398701297</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="2"/>
+        <v>6.27865593473311</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3700,56 +4266,56 @@
       <c r="C5" s="1">
         <v>13.3559</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4.3576800000000002</v>
-      </c>
-      <c r="H5" s="3">
-        <v>6.7885099999999996</v>
-      </c>
-      <c r="I5" s="3">
-        <v>6.6951499999999999</v>
-      </c>
-      <c r="J5" s="3">
-        <v>7.1207200000000004</v>
-      </c>
-      <c r="K5" s="3">
-        <v>7.1169200000000004</v>
-      </c>
-      <c r="L5" s="3">
-        <v>7.2172999999999998</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.35768</v>
+      </c>
+      <c r="H5" s="4">
+        <v>6.78851</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6.69515</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7.12072</v>
+      </c>
+      <c r="K5" s="4">
+        <v>7.11692</v>
+      </c>
+      <c r="L5" s="4">
+        <v>7.2173</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="4">
         <f t="shared" ref="P5:U5" si="3">$G$2/G5</f>
-        <v>13.959033247048888</v>
-      </c>
-      <c r="Q5" s="3">
+        <v>13.9590332470489</v>
+      </c>
+      <c r="Q5" s="4">
         <f t="shared" si="3"/>
-        <v>8.9605819244576512</v>
-      </c>
-      <c r="R5" s="3">
+        <v>8.96058192445765</v>
+      </c>
+      <c r="R5" s="4">
         <f t="shared" si="3"/>
-        <v>9.0855320642554691</v>
-      </c>
-      <c r="S5" s="3">
+        <v>9.08553206425547</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="3"/>
-        <v>8.5425350245480782</v>
-      </c>
-      <c r="T5" s="3">
+        <v>8.54253502454808</v>
+      </c>
+      <c r="T5" s="4">
         <f t="shared" si="3"/>
-        <v>8.5470962157787351</v>
-      </c>
-      <c r="U5" s="3">
+        <v>8.54709621577874</v>
+      </c>
+      <c r="U5" s="4">
         <f t="shared" si="3"/>
-        <v>8.428221079905228</v>
+        <v>8.42822107990523</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -3757,58 +4323,58 @@
         <v>16</v>
       </c>
       <c r="C6" s="1">
-        <v>14.473599999999999</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4.9562200000000001</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5.6480399999999999</v>
-      </c>
-      <c r="I6" s="3">
+        <v>14.4736</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4.95622</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5.64804</v>
+      </c>
+      <c r="I6" s="4">
         <v>5.94719</v>
       </c>
-      <c r="J6" s="3">
-        <v>5.9445699999999997</v>
-      </c>
-      <c r="K6" s="3">
-        <v>6.2159700000000004</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="J6" s="4">
+        <v>5.94457</v>
+      </c>
+      <c r="K6" s="4">
+        <v>6.21597</v>
+      </c>
+      <c r="L6" s="4">
         <v>6.03775</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="O6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="4">
         <f t="shared" ref="P6:U6" si="4">$G$2/G6</f>
-        <v>12.273264705763667</v>
-      </c>
-      <c r="Q6" s="3">
+        <v>12.2732647057637</v>
+      </c>
+      <c r="Q6" s="4">
         <f t="shared" si="4"/>
-        <v>10.769930807855468</v>
-      </c>
-      <c r="R6" s="3">
+        <v>10.7699308078555</v>
+      </c>
+      <c r="R6" s="4">
         <f t="shared" si="4"/>
-        <v>10.228191801506258</v>
-      </c>
-      <c r="S6" s="3">
+        <v>10.2281918015063</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="4"/>
-        <v>10.232699757930348</v>
-      </c>
-      <c r="T6" s="3">
+        <v>10.2326997579303</v>
+      </c>
+      <c r="T6" s="4">
         <f t="shared" si="4"/>
-        <v>9.7859223902303256</v>
-      </c>
-      <c r="U6" s="3">
+        <v>9.78592239023033</v>
+      </c>
+      <c r="U6" s="4">
         <f t="shared" si="4"/>
-        <v>10.074779512235519</v>
+        <v>10.0747795122355</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3816,58 +4382,58 @@
         <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>16.282900000000001</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5.1111599999999999</v>
-      </c>
-      <c r="H7" s="3">
-        <v>6.1773600000000002</v>
-      </c>
-      <c r="I7" s="3">
-        <v>6.0246500000000003</v>
-      </c>
-      <c r="J7" s="3">
+        <v>16.2829</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5.11116</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6.17736</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6.02465</v>
+      </c>
+      <c r="J7" s="4">
         <v>6.28714</v>
       </c>
-      <c r="K7" s="3">
-        <v>6.5919100000000004</v>
-      </c>
-      <c r="L7" s="3">
-        <v>6.0514700000000001</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="K7" s="4">
+        <v>6.59191</v>
+      </c>
+      <c r="L7" s="4">
+        <v>6.05147</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="4">
         <f t="shared" ref="P7:U7" si="5">$G$2/G7</f>
-        <v>11.901212249274138</v>
-      </c>
-      <c r="Q7" s="3">
+        <v>11.9012122492741</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="5"/>
-        <v>9.8470867814082386</v>
-      </c>
-      <c r="R7" s="3">
+        <v>9.84708678140824</v>
+      </c>
+      <c r="R7" s="4">
         <f t="shared" si="5"/>
-        <v>10.096686114546072</v>
-      </c>
-      <c r="S7" s="3">
+        <v>10.0966861145461</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="5"/>
-        <v>9.6751464099733742</v>
-      </c>
-      <c r="T7" s="3">
+        <v>9.67514640997337</v>
+      </c>
+      <c r="T7" s="4">
         <f t="shared" si="5"/>
-        <v>9.2278262294236413</v>
-      </c>
-      <c r="U7" s="3">
+        <v>9.22782622942364</v>
+      </c>
+      <c r="U7" s="4">
         <f t="shared" si="5"/>
-        <v>10.051937793627003</v>
+        <v>10.051937793627</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -3875,10 +4441,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>35.869500000000002</v>
+        <v>35.8695</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3889,7 +4455,7 @@
         <v>16.3749</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -3897,10 +4463,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>8.5102499999999992</v>
+        <v>8.51025</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -3911,7 +4477,7 @@
         <v>10.4527</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -3919,10 +4485,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="1">
-        <v>12.175599999999999</v>
+        <v>12.1756</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -3933,7 +4499,7 @@
         <v>14.2395</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -3941,10 +4507,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>7.1923000000000004</v>
+        <v>7.1923</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -3952,10 +4518,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>7.0167099999999998</v>
+        <v>7.01671</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -3963,10 +4529,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>7.9357899999999999</v>
+        <v>7.93579</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -3974,10 +4540,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>9.1006199999999993</v>
+        <v>9.10062</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -3985,10 +4551,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>9.2338299999999993</v>
+        <v>9.23383</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -3996,10 +4562,10 @@
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>9.6882199999999994</v>
+        <v>9.68822</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -4007,10 +4573,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>4.3576800000000002</v>
+        <v>4.35768</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -4018,10 +4584,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>6.7885099999999996</v>
+        <v>6.78851</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -4029,10 +4595,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>6.6951499999999999</v>
+        <v>6.69515</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -4040,10 +4606,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="1">
-        <v>7.1207200000000004</v>
+        <v>7.12072</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -4051,10 +4617,10 @@
         <v>16</v>
       </c>
       <c r="C24" s="1">
-        <v>7.1169200000000004</v>
+        <v>7.11692</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -4062,10 +4628,10 @@
         <v>32</v>
       </c>
       <c r="C25" s="1">
-        <v>7.2172999999999998</v>
+        <v>7.2173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>16</v>
       </c>
@@ -4073,10 +4639,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>4.9562200000000001</v>
+        <v>4.95622</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>16</v>
       </c>
@@ -4084,10 +4650,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>5.6480399999999999</v>
+        <v>5.64804</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>16</v>
       </c>
@@ -4098,7 +4664,7 @@
         <v>5.94719</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>16</v>
       </c>
@@ -4106,10 +4672,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="1">
-        <v>5.9445699999999997</v>
+        <v>5.94457</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>16</v>
       </c>
@@ -4117,10 +4683,10 @@
         <v>16</v>
       </c>
       <c r="C30" s="1">
-        <v>6.2159700000000004</v>
+        <v>6.21597</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>16</v>
       </c>
@@ -4131,7 +4697,7 @@
         <v>6.03775</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -4139,10 +4705,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>5.1111599999999999</v>
+        <v>5.11116</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4150,10 +4716,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>6.1773600000000002</v>
+        <v>6.17736</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4161,10 +4727,10 @@
         <v>4</v>
       </c>
       <c r="C34" s="1">
-        <v>6.0246500000000003</v>
+        <v>6.02465</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -4175,7 +4741,7 @@
         <v>6.28714</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -4183,10 +4749,10 @@
         <v>16</v>
       </c>
       <c r="C36" s="1">
-        <v>6.5919100000000004</v>
+        <v>6.59191</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>32</v>
       </c>
@@ -4194,19 +4760,19 @@
         <v>32</v>
       </c>
       <c r="C37" s="1">
-        <v>6.0514700000000001</v>
+        <v>6.05147</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="P2:U7">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G2:L7">
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P2:U7">
+    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_mpi_2048.xlsx
+++ b/data_mpi_2048.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SHU\workspace\Cpp_test\parallel_computing\test\matrix_omp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C622D87F-7B54-4EF5-8D22-F5486901D9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26685" windowHeight="12525"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_mpi_2048" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +80,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/</t>
     </r>
@@ -102,184 +119,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -287,202 +150,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -505,251 +188,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -763,65 +204,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -835,12 +235,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -884,11 +287,14 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>线程数</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>(2048)</a:t>
+            </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -897,6 +303,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -930,9 +356,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$P$1:$U$1</c:f>
@@ -969,24 +392,29 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.80208213372642</c:v>
+                  <c:v>2.8020821337264206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.00019728405616</c:v>
+                  <c:v>4.0001972840561599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.55446656533817</c:v>
+                  <c:v>4.5544665653381653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.20275536148574</c:v>
+                  <c:v>4.2027553614857398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.73575960056255</c:v>
+                  <c:v>3.7357596005625529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8043-4E82-AD60-BA5C037AFE0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1014,9 +442,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$P$1:$U$1</c:f>
@@ -1050,27 +475,32 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.69584187122764</c:v>
+                  <c:v>1.6958418712276446</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.71477077722612</c:v>
+                  <c:v>3.7147707772261205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1477336153462</c:v>
+                  <c:v>7.1477336153462012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.81945334698212</c:v>
+                  <c:v>5.8194533469821197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.99597555767272</c:v>
+                  <c:v>4.9959755576727227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.27184943291548</c:v>
+                  <c:v>4.2718494329154817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8043-4E82-AD60-BA5C037AFE0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1098,9 +528,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$P$1:$U$1</c:f>
@@ -1134,27 +561,32 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.45751706686317</c:v>
+                  <c:v>8.4575170668631721</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.66916261324752</c:v>
+                  <c:v>8.6691626132475204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.66514738923283</c:v>
+                  <c:v>7.6651473892328301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.68405009768565</c:v>
+                  <c:v>6.6840500976856525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.58762398701297</c:v>
+                  <c:v>6.5876239870129734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.27865593473311</c:v>
+                  <c:v>6.2786559347331092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8043-4E82-AD60-BA5C037AFE0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1185,7 +617,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1195,27 +626,60 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8043-4E82-AD60-BA5C037AFE0B}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8043-4E82-AD60-BA5C037AFE0B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8043-4E82-AD60-BA5C037AFE0B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-8043-4E82-AD60-BA5C037AFE0B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8043-4E82-AD60-BA5C037AFE0B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-8043-4E82-AD60-BA5C037AFE0B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -1250,6 +714,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1259,7 +724,6 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -1271,22 +735,7 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1323,27 +772,32 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.9590332470489</c:v>
+                  <c:v>13.959033247048888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.96058192445765</c:v>
+                  <c:v>8.9605819244576512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.08553206425547</c:v>
+                  <c:v>9.0855320642554691</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.54253502454808</c:v>
+                  <c:v>8.5425350245480782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.54709621577874</c:v>
+                  <c:v>8.5470962157787351</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.42822107990523</c:v>
+                  <c:v>8.428221079905228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8043-4E82-AD60-BA5C037AFE0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1371,9 +825,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$P$1:$U$1</c:f>
@@ -1407,27 +858,32 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.2732647057637</c:v>
+                  <c:v>12.273264705763667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.7699308078555</c:v>
+                  <c:v>10.769930807855468</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.2281918015063</c:v>
+                  <c:v>10.228191801506258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.2326997579303</c:v>
+                  <c:v>10.232699757930348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.78592239023033</c:v>
+                  <c:v>9.7859223902303256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0747795122355</c:v>
+                  <c:v>10.074779512235519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8043-4E82-AD60-BA5C037AFE0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1455,9 +911,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$P$1:$U$1</c:f>
@@ -1491,27 +944,32 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.9012122492741</c:v>
+                  <c:v>11.901212249274138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.84708678140824</c:v>
+                  <c:v>9.8470867814082386</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0966861145461</c:v>
+                  <c:v>10.096686114546072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.67514640997337</c:v>
+                  <c:v>9.6751464099733742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.22782622942364</c:v>
+                  <c:v>9.2278262294236413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.051937793627</c:v>
+                  <c:v>10.051937793627003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8043-4E82-AD60-BA5C037AFE0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1521,7 +979,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="172537500"/>
         <c:axId val="83243181"/>
@@ -1567,6 +1024,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83243181"/>
@@ -1626,6 +1084,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="172537500"/>
@@ -1642,7 +1101,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1668,6 +1126,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1697,6 +1156,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1708,7 +1168,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1752,11 +1212,14 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>进程数</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>(2048)</a:t>
+            </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1765,6 +1228,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1802,18 +1285,35 @@
             <c:dLbl>
               <c:idx val="0"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E91A-408C-BBB7-8D1435B7ABEF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E91A-408C-BBB7-8D1435B7ABEF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E91A-408C-BBB7-8D1435B7ABEF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1823,15 +1323,30 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E91A-408C-BBB7-8D1435B7ABEF}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E91A-408C-BBB7-8D1435B7ABEF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E91A-408C-BBB7-8D1435B7ABEF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:solidFill>
@@ -1866,6 +1381,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1875,7 +1391,6 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -1887,22 +1402,7 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1942,24 +1442,29 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.69584187122764</c:v>
+                  <c:v>1.6958418712276446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.45751706686317</c:v>
+                  <c:v>8.4575170668631721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.9590332470489</c:v>
+                  <c:v>13.959033247048888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.2732647057637</c:v>
+                  <c:v>12.273264705763667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.9012122492741</c:v>
+                  <c:v>11.901212249274138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E91A-408C-BBB7-8D1435B7ABEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1987,9 +1492,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$O$2:$O$7</c:f>
@@ -2023,27 +1525,32 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.80208213372642</c:v>
+                  <c:v>2.8020821337264206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.71477077722612</c:v>
+                  <c:v>3.7147707772261205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.66916261324752</c:v>
+                  <c:v>8.6691626132475204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.96058192445765</c:v>
+                  <c:v>8.9605819244576512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.7699308078555</c:v>
+                  <c:v>10.769930807855468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.84708678140824</c:v>
+                  <c:v>9.8470867814082386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E91A-408C-BBB7-8D1435B7ABEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2071,9 +1578,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$O$2:$O$7</c:f>
@@ -2107,27 +1611,32 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.00019728405616</c:v>
+                  <c:v>4.0001972840561599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1477336153462</c:v>
+                  <c:v>7.1477336153462012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.66514738923283</c:v>
+                  <c:v>7.6651473892328301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.08553206425547</c:v>
+                  <c:v>9.0855320642554691</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.2281918015063</c:v>
+                  <c:v>10.228191801506258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0966861145461</c:v>
+                  <c:v>10.096686114546072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E91A-408C-BBB7-8D1435B7ABEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2155,9 +1664,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$O$2:$O$7</c:f>
@@ -2191,27 +1697,32 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.55446656533817</c:v>
+                  <c:v>4.5544665653381653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.81945334698212</c:v>
+                  <c:v>5.8194533469821197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.68405009768565</c:v>
+                  <c:v>6.6840500976856525</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.54253502454808</c:v>
+                  <c:v>8.5425350245480782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.2326997579303</c:v>
+                  <c:v>10.232699757930348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.67514640997337</c:v>
+                  <c:v>9.6751464099733742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E91A-408C-BBB7-8D1435B7ABEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2239,9 +1750,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$O$2:$O$7</c:f>
@@ -2275,27 +1783,32 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.20275536148574</c:v>
+                  <c:v>4.2027553614857398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.99597555767272</c:v>
+                  <c:v>4.9959755576727227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.58762398701297</c:v>
+                  <c:v>6.5876239870129734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.54709621577874</c:v>
+                  <c:v>8.5470962157787351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.78592239023033</c:v>
+                  <c:v>9.7859223902303256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.22782622942364</c:v>
+                  <c:v>9.2278262294236413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E91A-408C-BBB7-8D1435B7ABEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2323,9 +1836,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>data_mpi_2048!$O$2:$O$7</c:f>
@@ -2359,27 +1869,32 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.73575960056255</c:v>
+                  <c:v>3.7357596005625529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.27184943291548</c:v>
+                  <c:v>4.2718494329154817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.27865593473311</c:v>
+                  <c:v>6.2786559347331092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.42822107990523</c:v>
+                  <c:v>8.428221079905228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0747795122355</c:v>
+                  <c:v>10.074779512235519</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.051937793627</c:v>
+                  <c:v>10.051937793627003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-E91A-408C-BBB7-8D1435B7ABEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2389,7 +1904,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="210983551"/>
         <c:axId val="206418015"/>
@@ -2435,6 +1949,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="206418015"/>
@@ -2494,6 +2009,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="210983551"/>
@@ -2510,7 +2026,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2536,6 +2051,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2565,6 +2081,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3688,28 +3205,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>549274</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>8889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>449674</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>12974</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>64140</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>145689</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3312160" y="2332990"/>
-        <a:ext cx="5427980" cy="3061335"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3721,25 +3244,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>528955</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>295687</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>84412</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>44455</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7894</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11449050" y="2242820"/>
-        <a:ext cx="5427345" cy="3060700"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4004,24 +3533,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.25333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="7.25333333333333" style="1"/>
+    <col min="1" max="16384" width="7.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:22">
+    <row r="1" spans="1:22" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +3609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4088,16 +3617,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>60.829</v>
+        <v>60.829000000000001</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="4">
-        <v>60.829</v>
+        <v>60.829000000000001</v>
       </c>
       <c r="H2" s="4">
-        <v>21.7085</v>
+        <v>21.708500000000001</v>
       </c>
       <c r="I2" s="4">
         <v>15.2065</v>
@@ -4106,10 +3635,10 @@
         <v>13.3559</v>
       </c>
       <c r="K2" s="4">
-        <v>14.4736</v>
+        <v>14.473599999999999</v>
       </c>
       <c r="L2" s="4">
-        <v>16.2829</v>
+        <v>16.282900000000001</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>13</v>
@@ -4119,26 +3648,26 @@
       </c>
       <c r="Q2" s="4">
         <f t="shared" ref="Q2:U2" si="0">$G$2/H2</f>
-        <v>2.80208213372642</v>
+        <v>2.8020821337264206</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>4.00019728405616</v>
+        <v>4.0001972840561599</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>4.55446656533817</v>
+        <v>4.5544665653381653</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>4.20275536148574</v>
+        <v>4.2027553614857398</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>3.73575960056255</v>
+        <v>3.7357596005625529</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4146,25 +3675,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>21.7085</v>
+        <v>21.708500000000001</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>35.8695</v>
+        <v>35.869500000000002</v>
       </c>
       <c r="H3" s="4">
         <v>16.3749</v>
       </c>
       <c r="I3" s="4">
-        <v>8.51025</v>
+        <v>8.5102499999999992</v>
       </c>
       <c r="J3" s="4">
         <v>10.4527</v>
       </c>
       <c r="K3" s="4">
-        <v>12.1756</v>
+        <v>12.175599999999999</v>
       </c>
       <c r="L3" s="4">
         <v>14.2395</v>
@@ -4174,30 +3703,30 @@
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:U3" si="1">$G$2/G3</f>
-        <v>1.69584187122764</v>
+        <v>1.6958418712276446</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>3.71477077722612</v>
+        <v>3.7147707772261205</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="1"/>
-        <v>7.1477336153462</v>
+        <v>7.1477336153462012</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="1"/>
-        <v>5.81945334698212</v>
+        <v>5.8194533469821197</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="1"/>
-        <v>4.99597555767272</v>
+        <v>4.9959755576727227</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="1"/>
-        <v>4.27184943291548</v>
+        <v>4.2718494329154817</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4211,52 +3740,52 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>7.1923</v>
+        <v>7.1923000000000004</v>
       </c>
       <c r="H4" s="4">
-        <v>7.01671</v>
+        <v>7.0167099999999998</v>
       </c>
       <c r="I4" s="4">
-        <v>7.93579</v>
+        <v>7.9357899999999999</v>
       </c>
       <c r="J4" s="4">
-        <v>9.10062</v>
+        <v>9.1006199999999993</v>
       </c>
       <c r="K4" s="4">
-        <v>9.23383</v>
+        <v>9.2338299999999993</v>
       </c>
       <c r="L4" s="4">
-        <v>9.68822</v>
+        <v>9.6882199999999994</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" ref="P4:U4" si="2">$G$2/G4</f>
-        <v>8.45751706686317</v>
+        <v>8.4575170668631721</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="2"/>
-        <v>8.66916261324752</v>
+        <v>8.6691626132475204</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="2"/>
-        <v>7.66514738923283</v>
+        <v>7.6651473892328301</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="2"/>
-        <v>6.68405009768565</v>
+        <v>6.6840500976856525</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="2"/>
-        <v>6.58762398701297</v>
+        <v>6.5876239870129734</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="2"/>
-        <v>6.27865593473311</v>
+        <v>6.2786559347331092</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4270,52 +3799,52 @@
         <v>16</v>
       </c>
       <c r="G5" s="4">
-        <v>4.35768</v>
+        <v>4.3576800000000002</v>
       </c>
       <c r="H5" s="4">
-        <v>6.78851</v>
+        <v>6.7885099999999996</v>
       </c>
       <c r="I5" s="4">
-        <v>6.69515</v>
+        <v>6.6951499999999999</v>
       </c>
       <c r="J5" s="4">
-        <v>7.12072</v>
+        <v>7.1207200000000004</v>
       </c>
       <c r="K5" s="4">
-        <v>7.11692</v>
+        <v>7.1169200000000004</v>
       </c>
       <c r="L5" s="4">
-        <v>7.2173</v>
+        <v>7.2172999999999998</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" ref="P5:U5" si="3">$G$2/G5</f>
-        <v>13.9590332470489</v>
+        <v>13.959033247048888</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="3"/>
-        <v>8.96058192445765</v>
+        <v>8.9605819244576512</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="3"/>
-        <v>9.08553206425547</v>
+        <v>9.0855320642554691</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="3"/>
-        <v>8.54253502454808</v>
+        <v>8.5425350245480782</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="3"/>
-        <v>8.54709621577874</v>
+        <v>8.5470962157787351</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="3"/>
-        <v>8.42822107990523</v>
+        <v>8.428221079905228</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4323,25 +3852,25 @@
         <v>16</v>
       </c>
       <c r="C6" s="1">
-        <v>14.4736</v>
+        <v>14.473599999999999</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="4">
-        <v>4.95622</v>
+        <v>4.9562200000000001</v>
       </c>
       <c r="H6" s="4">
-        <v>5.64804</v>
+        <v>5.6480399999999999</v>
       </c>
       <c r="I6" s="4">
         <v>5.94719</v>
       </c>
       <c r="J6" s="4">
-        <v>5.94457</v>
+        <v>5.9445699999999997</v>
       </c>
       <c r="K6" s="4">
-        <v>6.21597</v>
+        <v>6.2159700000000004</v>
       </c>
       <c r="L6" s="4">
         <v>6.03775</v>
@@ -4351,30 +3880,30 @@
       </c>
       <c r="P6" s="4">
         <f t="shared" ref="P6:U6" si="4">$G$2/G6</f>
-        <v>12.2732647057637</v>
+        <v>12.273264705763667</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="4"/>
-        <v>10.7699308078555</v>
+        <v>10.769930807855468</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="4"/>
-        <v>10.2281918015063</v>
+        <v>10.228191801506258</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="4"/>
-        <v>10.2326997579303</v>
+        <v>10.232699757930348</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="4"/>
-        <v>9.78592239023033</v>
+        <v>9.7859223902303256</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="4"/>
-        <v>10.0747795122355</v>
+        <v>10.074779512235519</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4382,58 +3911,58 @@
         <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>16.2829</v>
+        <v>16.282900000000001</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="4">
-        <v>5.11116</v>
+        <v>5.1111599999999999</v>
       </c>
       <c r="H7" s="4">
-        <v>6.17736</v>
+        <v>6.1773600000000002</v>
       </c>
       <c r="I7" s="4">
-        <v>6.02465</v>
+        <v>6.0246500000000003</v>
       </c>
       <c r="J7" s="4">
         <v>6.28714</v>
       </c>
       <c r="K7" s="4">
-        <v>6.59191</v>
+        <v>6.5919100000000004</v>
       </c>
       <c r="L7" s="4">
-        <v>6.05147</v>
+        <v>6.0514700000000001</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" ref="P7:U7" si="5">$G$2/G7</f>
-        <v>11.9012122492741</v>
+        <v>11.901212249274138</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="5"/>
-        <v>9.84708678140824</v>
+        <v>9.8470867814082386</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="5"/>
-        <v>10.0966861145461</v>
+        <v>10.096686114546072</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="5"/>
-        <v>9.67514640997337</v>
+        <v>9.6751464099733742</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="5"/>
-        <v>9.22782622942364</v>
+        <v>9.2278262294236413</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="5"/>
-        <v>10.051937793627</v>
+        <v>10.051937793627003</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -4441,10 +3970,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>35.8695</v>
+        <v>35.869500000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -4455,7 +3984,7 @@
         <v>16.3749</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -4463,10 +3992,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>8.51025</v>
+        <v>8.5102499999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -4477,7 +4006,7 @@
         <v>10.4527</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -4485,10 +4014,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="1">
-        <v>12.1756</v>
+        <v>12.175599999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -4499,7 +4028,7 @@
         <v>14.2395</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -4507,10 +4036,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>7.1923</v>
+        <v>7.1923000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -4518,10 +4047,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>7.01671</v>
+        <v>7.0167099999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -4529,10 +4058,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>7.93579</v>
+        <v>7.9357899999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -4540,10 +4069,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>9.10062</v>
+        <v>9.1006199999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -4551,10 +4080,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>9.23383</v>
+        <v>9.2338299999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -4562,10 +4091,10 @@
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>9.68822</v>
+        <v>9.6882199999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -4573,10 +4102,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>4.35768</v>
+        <v>4.3576800000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -4584,10 +4113,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>6.78851</v>
+        <v>6.7885099999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -4595,10 +4124,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>6.69515</v>
+        <v>6.6951499999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -4606,10 +4135,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="1">
-        <v>7.12072</v>
+        <v>7.1207200000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -4617,10 +4146,10 @@
         <v>16</v>
       </c>
       <c r="C24" s="1">
-        <v>7.11692</v>
+        <v>7.1169200000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -4628,10 +4157,10 @@
         <v>32</v>
       </c>
       <c r="C25" s="1">
-        <v>7.2173</v>
+        <v>7.2172999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>16</v>
       </c>
@@ -4639,10 +4168,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>4.95622</v>
+        <v>4.9562200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>16</v>
       </c>
@@ -4650,10 +4179,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>5.64804</v>
+        <v>5.6480399999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>16</v>
       </c>
@@ -4664,7 +4193,7 @@
         <v>5.94719</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>16</v>
       </c>
@@ -4672,10 +4201,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="1">
-        <v>5.94457</v>
+        <v>5.9445699999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>16</v>
       </c>
@@ -4683,10 +4212,10 @@
         <v>16</v>
       </c>
       <c r="C30" s="1">
-        <v>6.21597</v>
+        <v>6.2159700000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>16</v>
       </c>
@@ -4697,7 +4226,7 @@
         <v>6.03775</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -4705,10 +4234,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>5.11116</v>
+        <v>5.1111599999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4716,10 +4245,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>6.17736</v>
+        <v>6.1773600000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4727,10 +4256,10 @@
         <v>4</v>
       </c>
       <c r="C34" s="1">
-        <v>6.02465</v>
+        <v>6.0246500000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -4741,7 +4270,7 @@
         <v>6.28714</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -4749,10 +4278,10 @@
         <v>16</v>
       </c>
       <c r="C36" s="1">
-        <v>6.59191</v>
+        <v>6.5919100000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>32</v>
       </c>
@@ -4760,19 +4289,19 @@
         <v>32</v>
       </c>
       <c r="C37" s="1">
-        <v>6.05147</v>
+        <v>6.0514700000000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G2:L7">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:U7">
     <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>